--- a/medicine/Enfance/Naomi_Mitchison/Naomi_Mitchison.xlsx
+++ b/medicine/Enfance/Naomi_Mitchison/Naomi_Mitchison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Naomi Mitchison, née en 1897 à Édimbourg en Écosse, morte en 1999, est une romancière, poétesse, auteure de littérature jeunesse écossaise. 
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Naomi Mary Margaret Mitchison, Lady Mitchison, CBE, née Haldane le 1er novembre 1897 et morte le 11 janvier 1999, a été longtemps considérée comme la doyenne de la littérature écossaise. Elle a publié plus de 90 ouvrages : fiction historique, science fiction, récit de voyage et autobiographie[4]. Son mari Dick Mitchison ayant été nommé pair à vie en 1964, elle aurait pu se faire appeler Lady Mitchison, mais n'a jamais utilisé le titre elle-même[5]. Elle a reçu l'Ordre de l'Empire britannique en 1981[6].
-À la suite de son père John Scott Haldane et de son frère ainé John Burdon Sanderson Haldane, Naomi Mitchison a d'abord suivi une carrière scientifique. En 1908, elle et son frère commencèrent l'étude des Lois de Mendel. Leur publication de 1915 est la première démonstration de liaison génétique chez les mammifères[7]. Mais alors qu'elle était diplômée de la Society of Oxford Home Students (plus tard St Anne's College), le déclenchement de la Première Guerre mondiale la décida à devenir infirmière.
-Son roman The Corn King and the Spring Queen (1931) est considéré par beaucoup comme le meilleur roman historique du XXe siècle[8].
-Naomi Mitchison était une féministe écoutée, particulièrement engagée pour le contrôle des naissances. We Have Been Warned (1935) est le plus controversé de ses ouvrages en raison des scènes sexuellement explicites qui y figurent. Le livre a été rejeté par les grands éditeurs, puis censuré[9],[10].
-Elle meurt le 13 janvier 1999 à l'âge de 101 ans[11].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Naomi Mary Margaret Mitchison, Lady Mitchison, CBE, née Haldane le 1er novembre 1897 et morte le 11 janvier 1999, a été longtemps considérée comme la doyenne de la littérature écossaise. Elle a publié plus de 90 ouvrages : fiction historique, science fiction, récit de voyage et autobiographie. Son mari Dick Mitchison ayant été nommé pair à vie en 1964, elle aurait pu se faire appeler Lady Mitchison, mais n'a jamais utilisé le titre elle-même. Elle a reçu l'Ordre de l'Empire britannique en 1981.
+À la suite de son père John Scott Haldane et de son frère ainé John Burdon Sanderson Haldane, Naomi Mitchison a d'abord suivi une carrière scientifique. En 1908, elle et son frère commencèrent l'étude des Lois de Mendel. Leur publication de 1915 est la première démonstration de liaison génétique chez les mammifères. Mais alors qu'elle était diplômée de la Society of Oxford Home Students (plus tard St Anne's College), le déclenchement de la Première Guerre mondiale la décida à devenir infirmière.
+Son roman The Corn King and the Spring Queen (1931) est considéré par beaucoup comme le meilleur roman historique du XXe siècle.
+Naomi Mitchison était une féministe écoutée, particulièrement engagée pour le contrôle des naissances. We Have Been Warned (1935) est le plus controversé de ses ouvrages en raison des scènes sexuellement explicites qui y figurent. Le livre a été rejeté par les grands éditeurs, puis censuré,.
+Elle meurt le 13 janvier 1999 à l'âge de 101 ans.
 </t>
         </is>
       </c>
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-The Conquered[12] (1923 ; reprinted, with an introduction by Isobel Murray, Kennedy &amp; Boyd, 2009)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>The Conquered (1923 ; reprinted, with an introduction by Isobel Murray, Kennedy &amp; Boyd, 2009)
 Cloud Cuckoo Land (1925; reprinted, with an introduction by Isobel Murray, Kennedy &amp; Boyd, 2011)
 The Laburnum Branch (1926)
 The Fairy who Couldn't Tell a Lie (1927)
@@ -569,7 +588,7 @@
 Travel Light (Faber and Faber, 1952; Virago Press, 1985; Penguin Books, 1987; Small Beer Press, 2005; reprinted in the UK with The Varangs' Saga, and an introduction by Isobel Murray, Kennedy &amp; Boyd, 2009)
 Graeme and the Dragon (1954
 The Land the Ravens Found (1955)
-To the Chapel Perilous (1955)[13]
+To the Chapel Perilous (1955)
 Little Boxes (1956)
 Behold your King (1957; reprinted, with an introduction by Moira Burgess, Kennedy &amp; Boyd, 2009)
 The Young Alexander the Great (1960)
@@ -586,7 +605,7 @@
 Sunrise Tomorrow: A Story of Botswana (1973)
 A Life for Africa: The Story of Bram Fischer (1973)
 Danish Teapot (1973)
-Solution Three (1975 (postface de Susan Merrill Squier)[14] ; 2011, introduction de Isobel Murray, Kennedy &amp; Boyd  (ISBN 978-1-55861-096-5))
+Solution Three (1975 (postface de Susan Merrill Squier) ; 2011, introduction de Isobel Murray, Kennedy &amp; Boyd  (ISBN 978-1-55861-096-5))
 All Change Here (1975)
 Snake! (1976)
 Two Magicians (with Dick Mitchison, 1979)
@@ -598,14 +617,82 @@
 As It Was (1988)
 The Oath-takers (1991)
 Sea-green Ribbons (1991)
-The Dark Twin (with Marion Campbell, 1998)
-Autobiographie
-Small Talk: Memories of an Edwardian Childhood (1973; reprinted, with an introductory essay by Ali Smith, Kennedy &amp; Boyd, 2009)
+The Dark Twin (with Marion Campbell, 1998)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Naomi_Mitchison</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Naomi_Mitchison</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autobiographie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Small Talk: Memories of an Edwardian Childhood (1973; reprinted, with an introductory essay by Ali Smith, Kennedy &amp; Boyd, 2009)
 All Change Here: Girlhood and Marriage (1975)
 – published together as: As It Was: An Autobiography 1897–1918 (1975)
-You May Well Ask: A Memoir, 1920–1940 (1979)
-Autres
-Vienna Diary (1934;  reprinted by Kennedy &amp; Boyd, 2009)
+You May Well Ask: A Memoir, 1920–1940 (1979)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Naomi_Mitchison</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Naomi_Mitchison</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Vienna Diary (1934;  reprinted by Kennedy &amp; Boyd, 2009)
 The Moral Basis of Politics (1938; Reprinted 1971)
 Return to the Fairy Hill (1966)
 African Heroes (1968)
@@ -615,47 +702,117 @@
 Margaret Cole, 1893–1980 (1982)
 Among You Taking Notes... (1985)
 Rising Public Voice: Women in Politics Worldwide (1995)
-Essays and Journalism. Volume 2: Carradale (Kennedy &amp; Boyd, 2009) Edited and introduced by Moira Burgess.
-Théâtre
-The Price of Freedom. A play in three acts (with Lewis Gielgud Mitchison, 1931)
-Traductions en français
- Mémoires d'une femme de l'espace, traduction de Memoirs of a spacewoman par Stéphane Rouvre, Denoël, 1963 (Présence du futur, n°64)</t>
+Essays and Journalism. Volume 2: Carradale (Kennedy &amp; Boyd, 2009) Edited and introduced by Moira Burgess.</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Naomi_Mitchison</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Naomi_Mitchison</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>The Price of Freedom. A play in three acts (with Lewis Gielgud Mitchison, 1931)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Naomi_Mitchison</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Naomi_Mitchison</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Traductions en français</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mémoires d'une femme de l'espace, traduction de Memoirs of a spacewoman par Stéphane Rouvre, Denoël, 1963 (Présence du futur, n°64)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Naomi_Mitchison</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Naomi_Mitchison</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>(international) « Runner-Up List » 1960[15], par l' IBBY, catégorie Auteur, pour Judy and Lakshmi
-Honorary doctorate de l'Université de Stirling, Scotland, in 1976[16]
-Honorary LLD (Doctor of Law) from the University of Dundee, Scotland, in 1985[17]
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(international) « Runner-Up List » 1960, par l' IBBY, catégorie Auteur, pour Judy and Lakshmi
+Honorary doctorate de l'Université de Stirling, Scotland, in 1976
+Honorary LLD (Doctor of Law) from the University of Dundee, Scotland, in 1985
 D.Litt. from the University of Strathclyde, Glasgow, in 1983
 Elected to Honorary Fellow of St. Anne's College in 1980, and Wolfson College (Oxford) in 1983
 C.B.E. (Commander, Order of the British Empire) in 1981
-James Watson a écrit une grande partie de La Double Hélice (en) chez les Mitchisons, auxquels il est dédié[18].</t>
+James Watson a écrit une grande partie de La Double Hélice (en) chez les Mitchisons, auxquels il est dédié.</t>
         </is>
       </c>
     </row>
